--- a/python/output/philips/Philips_Results_CCI_2021-11-01default.xlsx
+++ b/python/output/philips/Philips_Results_CCI_2021-11-01default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daleblack/Google Drive/dev/MolloiLab/CAC-stanford-data/python/output/philips/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B0881F-C9D6-B940-9CCC-9D95C3CCF8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727EF77-EA78-524D-8C8E-FD00160CCB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Used_data" sheetId="1" r:id="rId1"/>
@@ -429,6 +429,89 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12996915007506604"/>
+                  <c:y val="-1.6861459885081951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1.0739x - 2.1543</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0.9926</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Used_data!$R$2:$R$91</c:f>
